--- a/pom/data/testData.xlsx
+++ b/pom/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2c0b4aaaea4444/Desktop/todoist/pom/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E64409A6-8E3C-4BB2-99F4-31A1FE496D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C271BA77-BF18-41A3-9A91-52D7A3622EC1}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{E64409A6-8E3C-4BB2-99F4-31A1FE496D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7DF7F2-69B4-4E4F-963F-7E7CAB6157C5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3C79872-6893-455F-975B-C617D4AD75C4}"/>
   </bookViews>
@@ -42,17 +42,17 @@
     <t>myPassword</t>
   </si>
   <si>
-    <t>aytemurerol1@gmail.com</t>
+    <t>yavuz7575</t>
   </si>
   <si>
-    <t>mySecret</t>
+    <t>aytemurerol1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,7 +418,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,44 +437,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C6F66D66-D0F4-4422-85E4-D0E63E94F0F0}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{E6129259-50CF-4444-BB55-5F624F1E54B7}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{B1223B59-56B4-4BB5-AACA-30AB4C10926B}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{A8FC4896-4189-49EA-966F-5BB4AD0B8DA0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>